--- a/utilities/Excel_Sheets/Products/DAYSPA.xlsx
+++ b/utilities/Excel_Sheets/Products/DAYSPA.xlsx
@@ -806,7 +806,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
@@ -864,7 +864,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -999,7 +999,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C14" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C18" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C20" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C22" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C24" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C26" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="C28" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C30" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C32" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C34" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C36" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C38" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C40" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="C42" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C44" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C46" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="C48" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C50" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C52" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C54" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C56" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="C58" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C60" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C62" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C64" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C66" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="C68" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C70" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C72" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="C74" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C76" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="C78" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C80" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C82" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C84" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C86" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C88" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C90" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C92" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="C94" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="C96" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D96" s="4">
         <v>2</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C98" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D98" s="4">
         <v>2</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="C100" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D100" s="4">
         <v>2</v>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="C102" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C104" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D104" s="4">
         <v>2</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="C106" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D106" s="4">
         <v>2</v>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="C108" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C110" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D110" s="4">
         <v>2</v>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="C112" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="C114" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D114" s="4">
         <v>2</v>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="C116" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D116" s="4">
         <v>2</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C118" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D118" s="4">
         <v>2</v>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="C120" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D120" s="4">
         <v>2</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="C122" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D122" s="4">
         <v>2</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="C124" s="6">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D124" s="4">
         <v>2</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="C2" s="6">
         <f t="shared" ref="C2:C33" ca="1" si="0">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="C16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="C32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" ref="C34:C61" ca="1" si="1">TODAY()</f>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="C38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="C41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="C42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D42" s="4">
         <v>2</v>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="C44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="C45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="C46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="C47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="C48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="C49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="C51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="C52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D52" s="4">
         <v>2</v>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="C53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="C54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="C55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -8370,7 +8370,7 @@
       </c>
       <c r="C58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="C59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D59" s="4">
         <v>2</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="C60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="C61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43049</v>
+        <v>43054</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>

--- a/utilities/Excel_Sheets/Products/DAYSPA.xlsx
+++ b/utilities/Excel_Sheets/Products/DAYSPA.xlsx
@@ -812,7 +812,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C14" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C20" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C22" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C24" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C26" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C28" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C30" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C32" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C34" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C36" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C38" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C40" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C42" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C44" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C46" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="C48" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C50" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C52" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C54" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C56" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C58" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C60" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C62" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C64" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C66" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="C68" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="C70" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="C72" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C74" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="C76" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C78" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C80" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="C82" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="C86" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C88" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C90" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C92" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C94" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C96" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D96" s="4">
         <v>2</v>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="C98" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D98" s="4">
         <v>2</v>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="C100" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D100" s="4">
         <v>2</v>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="C102" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C104" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D104" s="4">
         <v>2</v>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="C106" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D106" s="4">
         <v>2</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C108" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="C110" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D110" s="4">
         <v>2</v>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C112" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C114" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D114" s="4">
         <v>2</v>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C116" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D116" s="4">
         <v>2</v>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="C118" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D118" s="4">
         <v>2</v>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="C120" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D120" s="4">
         <v>2</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C122" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D122" s="4">
         <v>2</v>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="C124" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D124" s="4">
         <v>2</v>
@@ -5313,7 +5313,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5467,8 +5467,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ref="C4:C43" ca="1" si="0">TODAY()</f>
+        <v>43266</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -5527,8 +5527,8 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -5587,8 +5587,8 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -5647,8 +5647,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -5707,8 +5707,8 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -5767,8 +5767,8 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -5827,8 +5827,8 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5887,8 +5887,8 @@
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5947,8 +5947,8 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -6007,8 +6007,8 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -6067,8 +6067,8 @@
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -6127,8 +6127,8 @@
         <v>1</v>
       </c>
       <c r="C15" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -6187,8 +6187,8 @@
         <v>1</v>
       </c>
       <c r="C16" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -6247,8 +6247,8 @@
         <v>1</v>
       </c>
       <c r="C17" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -6307,8 +6307,8 @@
         <v>1</v>
       </c>
       <c r="C18" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6367,8 +6367,8 @@
         <v>1</v>
       </c>
       <c r="C19" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -6427,8 +6427,8 @@
         <v>1</v>
       </c>
       <c r="C20" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -6487,8 +6487,8 @@
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -6547,8 +6547,8 @@
         <v>1</v>
       </c>
       <c r="C22" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -6607,8 +6607,8 @@
         <v>1</v>
       </c>
       <c r="C23" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -6667,8 +6667,8 @@
         <v>1</v>
       </c>
       <c r="C24" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -6727,8 +6727,8 @@
         <v>1</v>
       </c>
       <c r="C25" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -6787,8 +6787,8 @@
         <v>1</v>
       </c>
       <c r="C26" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -6847,8 +6847,8 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -6907,8 +6907,8 @@
         <v>1</v>
       </c>
       <c r="C28" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -6967,8 +6967,8 @@
         <v>1</v>
       </c>
       <c r="C29" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -7027,8 +7027,8 @@
         <v>1</v>
       </c>
       <c r="C30" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -7087,8 +7087,8 @@
         <v>1</v>
       </c>
       <c r="C31" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -7147,8 +7147,8 @@
         <v>1</v>
       </c>
       <c r="C32" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -7207,8 +7207,8 @@
         <v>1</v>
       </c>
       <c r="C33" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -7267,8 +7267,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -7327,8 +7327,8 @@
         <v>1</v>
       </c>
       <c r="C35" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -7387,8 +7387,8 @@
         <v>1</v>
       </c>
       <c r="C36" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -7447,8 +7447,8 @@
         <v>1</v>
       </c>
       <c r="C37" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -7507,8 +7507,8 @@
         <v>1</v>
       </c>
       <c r="C38" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -7567,8 +7567,8 @@
         <v>1</v>
       </c>
       <c r="C39" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -7627,8 +7627,8 @@
         <v>1</v>
       </c>
       <c r="C40" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -7687,8 +7687,8 @@
         <v>1</v>
       </c>
       <c r="C41" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -7747,8 +7747,8 @@
         <v>1</v>
       </c>
       <c r="C42" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -7807,8 +7807,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -7926,8 +7926,8 @@
         <v>2</v>
       </c>
       <c r="C45" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ref="C45:C64" ca="1" si="1">TODAY()</f>
+        <v>43266</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
@@ -7986,8 +7986,8 @@
         <v>2</v>
       </c>
       <c r="C46" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -8046,8 +8046,8 @@
         <v>2</v>
       </c>
       <c r="C47" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -8106,8 +8106,8 @@
         <v>2</v>
       </c>
       <c r="C48" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
@@ -8166,8 +8166,8 @@
         <v>2</v>
       </c>
       <c r="C49" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
@@ -8226,8 +8226,8 @@
         <v>2</v>
       </c>
       <c r="C50" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -8286,8 +8286,8 @@
         <v>2</v>
       </c>
       <c r="C51" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
@@ -8346,8 +8346,8 @@
         <v>2</v>
       </c>
       <c r="C52" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D52" s="4">
         <v>2</v>
@@ -8406,8 +8406,8 @@
         <v>2</v>
       </c>
       <c r="C53" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -8466,8 +8466,8 @@
         <v>2</v>
       </c>
       <c r="C54" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -8526,8 +8526,8 @@
         <v>2</v>
       </c>
       <c r="C55" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
@@ -8586,8 +8586,8 @@
         <v>2</v>
       </c>
       <c r="C56" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -8646,8 +8646,8 @@
         <v>2</v>
       </c>
       <c r="C57" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -8706,8 +8706,8 @@
         <v>2</v>
       </c>
       <c r="C58" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -8766,8 +8766,8 @@
         <v>2</v>
       </c>
       <c r="C59" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D59" s="4">
         <v>2</v>
@@ -8826,8 +8826,8 @@
         <v>2</v>
       </c>
       <c r="C60" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -8886,8 +8886,8 @@
         <v>2</v>
       </c>
       <c r="C61" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -8946,8 +8946,8 @@
         <v>2</v>
       </c>
       <c r="C62" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D62" s="4">
         <v>2</v>
@@ -9006,8 +9006,8 @@
         <v>2</v>
       </c>
       <c r="C63" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
@@ -9066,8 +9066,8 @@
         <v>2</v>
       </c>
       <c r="C64" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43266</v>
       </c>
       <c r="D64" s="4">
         <v>2</v>

--- a/utilities/Excel_Sheets/Products/DAYSPA.xlsx
+++ b/utilities/Excel_Sheets/Products/DAYSPA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="99">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>Staff_Count</t>
+  </si>
+  <si>
+    <t>Arlington Heights</t>
+  </si>
+  <si>
+    <t>Illinois</t>
   </si>
 </sst>
 </file>
@@ -715,10 +721,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,7 +818,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -830,13 +836,13 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3">
-        <v>95002</v>
+        <v>33009</v>
       </c>
       <c r="L2" s="5">
         <v>10</v>
@@ -873,7 +879,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -954,7 +960,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1015,7 +1021,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1076,7 +1082,7 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1137,7 +1143,7 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1198,7 +1204,7 @@
       </c>
       <c r="C14" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1259,7 +1265,7 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1320,7 +1326,7 @@
       </c>
       <c r="C18" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1381,7 +1387,7 @@
       </c>
       <c r="C20" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1442,7 +1448,7 @@
       </c>
       <c r="C22" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1503,7 +1509,7 @@
       </c>
       <c r="C24" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1564,7 +1570,7 @@
       </c>
       <c r="C26" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1625,7 +1631,7 @@
       </c>
       <c r="C28" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1643,13 +1649,13 @@
         <v>4</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="K28" s="3">
-        <v>60007</v>
+        <v>60004</v>
       </c>
       <c r="L28" s="3">
         <v>10</v>
@@ -1686,7 +1692,7 @@
       </c>
       <c r="C30" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1767,7 +1773,7 @@
       </c>
       <c r="C32" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1848,7 +1854,7 @@
       </c>
       <c r="C34" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1929,7 +1935,7 @@
       </c>
       <c r="C36" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2010,7 +2016,7 @@
       </c>
       <c r="C38" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2091,7 +2097,7 @@
       </c>
       <c r="C40" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2172,7 +2178,7 @@
       </c>
       <c r="C42" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -2233,7 +2239,7 @@
       </c>
       <c r="C44" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -2314,7 +2320,7 @@
       </c>
       <c r="C46" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -2375,7 +2381,7 @@
       </c>
       <c r="C48" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -2436,7 +2442,7 @@
       </c>
       <c r="C50" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -2497,7 +2503,7 @@
       </c>
       <c r="C52" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -2558,7 +2564,7 @@
       </c>
       <c r="C54" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -2619,7 +2625,7 @@
       </c>
       <c r="C56" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2680,7 +2686,7 @@
       </c>
       <c r="C58" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -2741,7 +2747,7 @@
       </c>
       <c r="C60" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2802,7 +2808,7 @@
       </c>
       <c r="C62" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2863,7 +2869,7 @@
       </c>
       <c r="C64" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -2924,7 +2930,7 @@
       </c>
       <c r="C66" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2985,7 +2991,7 @@
       </c>
       <c r="C68" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -3003,13 +3009,13 @@
         <v>4</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="K68" s="3">
-        <v>60007</v>
+        <v>60004</v>
       </c>
       <c r="L68" s="3">
         <v>10</v>
@@ -3046,7 +3052,7 @@
       </c>
       <c r="C70" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -3127,7 +3133,7 @@
       </c>
       <c r="C72" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -3208,7 +3214,7 @@
       </c>
       <c r="C74" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -3289,7 +3295,7 @@
       </c>
       <c r="C76" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -3370,7 +3376,7 @@
       </c>
       <c r="C78" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -3451,7 +3457,7 @@
       </c>
       <c r="C80" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -3532,7 +3538,7 @@
       </c>
       <c r="C82" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -3653,7 +3659,7 @@
       </c>
       <c r="C86" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -3734,7 +3740,7 @@
       </c>
       <c r="C88" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
@@ -3795,7 +3801,7 @@
       </c>
       <c r="C90" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -3856,7 +3862,7 @@
       </c>
       <c r="C92" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
@@ -3917,7 +3923,7 @@
       </c>
       <c r="C94" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -3978,7 +3984,7 @@
       </c>
       <c r="C96" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D96" s="4">
         <v>2</v>
@@ -4039,7 +4045,7 @@
       </c>
       <c r="C98" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D98" s="4">
         <v>2</v>
@@ -4100,7 +4106,7 @@
       </c>
       <c r="C100" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D100" s="4">
         <v>2</v>
@@ -4161,7 +4167,7 @@
       </c>
       <c r="C102" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
@@ -4222,7 +4228,7 @@
       </c>
       <c r="C104" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D104" s="4">
         <v>2</v>
@@ -4283,7 +4289,7 @@
       </c>
       <c r="C106" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D106" s="4">
         <v>2</v>
@@ -4344,7 +4350,7 @@
       </c>
       <c r="C108" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
@@ -4405,7 +4411,7 @@
       </c>
       <c r="C110" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D110" s="4">
         <v>2</v>
@@ -4468,7 +4474,7 @@
       </c>
       <c r="C112" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -4549,7 +4555,7 @@
       </c>
       <c r="C114" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D114" s="4">
         <v>2</v>
@@ -4630,7 +4636,7 @@
       </c>
       <c r="C116" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D116" s="4">
         <v>2</v>
@@ -4711,7 +4717,7 @@
       </c>
       <c r="C118" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D118" s="4">
         <v>2</v>
@@ -4792,7 +4798,7 @@
       </c>
       <c r="C120" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D120" s="4">
         <v>2</v>
@@ -4873,7 +4879,7 @@
       </c>
       <c r="C122" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D122" s="4">
         <v>2</v>
@@ -4954,7 +4960,7 @@
       </c>
       <c r="C124" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D124" s="4">
         <v>2</v>
@@ -5310,10 +5316,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6824C58A-A810-430A-AC76-3AA063084A6D}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5407,7 +5413,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5468,7 +5474,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" ref="C4:C43" ca="1" si="0">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -5528,7 +5534,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -5588,7 +5594,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -5648,7 +5654,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -5708,7 +5714,7 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -5768,7 +5774,7 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -5828,7 +5834,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5888,7 +5894,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5948,7 +5954,7 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -6008,7 +6014,7 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -6068,7 +6074,7 @@
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -6128,7 +6134,7 @@
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -6188,7 +6194,7 @@
       </c>
       <c r="C16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -6248,7 +6254,7 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -6308,7 +6314,7 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6368,7 +6374,7 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -6428,7 +6434,7 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -6488,7 +6494,7 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -6548,7 +6554,7 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -6608,7 +6614,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -6668,7 +6674,7 @@
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -6728,7 +6734,7 @@
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -6788,7 +6794,7 @@
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -6848,7 +6854,7 @@
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -6908,7 +6914,7 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -6968,7 +6974,7 @@
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -7028,7 +7034,7 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -7088,7 +7094,7 @@
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -7148,7 +7154,7 @@
       </c>
       <c r="C32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -7208,7 +7214,7 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -7268,7 +7274,7 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -7328,7 +7334,7 @@
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -7388,7 +7394,7 @@
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -7448,7 +7454,7 @@
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -7508,7 +7514,7 @@
       </c>
       <c r="C38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -7568,7 +7574,7 @@
       </c>
       <c r="C39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -7628,7 +7634,7 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -7688,7 +7694,7 @@
       </c>
       <c r="C41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -7748,7 +7754,7 @@
       </c>
       <c r="C42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -7808,7 +7814,7 @@
       </c>
       <c r="C43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -7927,7 +7933,7 @@
       </c>
       <c r="C45" s="6">
         <f t="shared" ref="C45:C64" ca="1" si="1">TODAY()</f>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
@@ -7987,7 +7993,7 @@
       </c>
       <c r="C46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -8047,7 +8053,7 @@
       </c>
       <c r="C47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -8107,7 +8113,7 @@
       </c>
       <c r="C48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
@@ -8167,7 +8173,7 @@
       </c>
       <c r="C49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
@@ -8227,7 +8233,7 @@
       </c>
       <c r="C50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -8287,7 +8293,7 @@
       </c>
       <c r="C51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
@@ -8347,7 +8353,7 @@
       </c>
       <c r="C52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D52" s="4">
         <v>2</v>
@@ -8407,7 +8413,7 @@
       </c>
       <c r="C53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -8467,7 +8473,7 @@
       </c>
       <c r="C54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -8527,7 +8533,7 @@
       </c>
       <c r="C55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
@@ -8587,7 +8593,7 @@
       </c>
       <c r="C56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -8647,7 +8653,7 @@
       </c>
       <c r="C57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -8707,7 +8713,7 @@
       </c>
       <c r="C58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -8767,7 +8773,7 @@
       </c>
       <c r="C59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D59" s="4">
         <v>2</v>
@@ -8827,7 +8833,7 @@
       </c>
       <c r="C60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -8887,7 +8893,7 @@
       </c>
       <c r="C61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -8947,7 +8953,7 @@
       </c>
       <c r="C62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D62" s="4">
         <v>2</v>
@@ -9007,7 +9013,7 @@
       </c>
       <c r="C63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
@@ -9067,7 +9073,7 @@
       </c>
       <c r="C64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="D64" s="4">
         <v>2</v>
